--- a/src/main/resources/Excel.xlsx
+++ b/src/main/resources/Excel.xlsx
@@ -14,52 +14,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>annotation</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isNeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,11 +119,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -416,63 +429,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2">
+        <v>256</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
         <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
